--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value153.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value153.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.723307173570387</v>
+        <v>4.369004726409912</v>
       </c>
       <c r="B1">
-        <v>2.533533676776088</v>
+        <v>4.239705085754395</v>
       </c>
       <c r="C1">
-        <v>2.554431047860986</v>
+        <v>3.662031173706055</v>
       </c>
       <c r="D1">
-        <v>1.19403355030066</v>
+        <v>1.79052460193634</v>
       </c>
       <c r="E1">
-        <v>0.6503676760173204</v>
+        <v>0.9953613877296448</v>
       </c>
     </row>
   </sheetData>
